--- a/biology/Zoologie/Gymnocephalus_baloni/Gymnocephalus_baloni.xlsx
+++ b/biology/Zoologie/Gymnocephalus_baloni/Gymnocephalus_baloni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnocephalus baloni[1] est une espèce de poissons d'eau douce de la famille des Percidae, découverte en 1974.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnocephalus baloni est une espèce de poissons d'eau douce de la famille des Percidae, découverte en 1974.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans le bassin versant du Danube, du Dniestr et du Dniepr.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Gymnocephalus baloni est de 150 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Gymnocephalus baloni est de 150 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnocephalus baloni est une espèce nommée en l'honneur de Eugene Kornel Balon, un zoologiste et ichtyologiste polono-canadien.
 </t>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) Holčík &amp; Hensel, 1974 : A new species of Gymnocephalus (Pisces: Percidae) from the Danube, with remarks on the genus. Copeia , vol. 1974, n. 2, p. 471-486[3] (introduction).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Holčík &amp; Hensel, 1974 : A new species of Gymnocephalus (Pisces: Percidae) from the Danube, with remarks on the genus. Copeia , vol. 1974, n. 2, p. 471-486 (introduction).</t>
         </is>
       </c>
     </row>
